--- a/optimiser/input/__params__.xlsx
+++ b/optimiser/input/__params__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Janzen\Desktop\code\calibrate\optimiser\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E11A2335-4FB3-4B0E-AA11-8D7055C59414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C2E6D5-9146-40A2-8E88-18FD4E339E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="39">
   <si>
     <t>Temperature</t>
   </si>
@@ -81,15 +81,6 @@
     <t>Training</t>
   </si>
   <si>
-    <t>A1,A3,A6,A7</t>
-  </si>
-  <si>
-    <t>A6,A7</t>
-  </si>
-  <si>
-    <t>A14,A16</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -124,6 +115,36 @@
   </si>
   <si>
     <t>wd_n</t>
+  </si>
+  <si>
+    <t>A10,12,14,16</t>
+  </si>
+  <si>
+    <t>A6,7</t>
+  </si>
+  <si>
+    <t>A14,16</t>
+  </si>
+  <si>
+    <t>A1,3,6,7</t>
+  </si>
+  <si>
+    <t>A1,3,6,8</t>
+  </si>
+  <si>
+    <t>A18,20,21,23</t>
+  </si>
+  <si>
+    <t>subpar</t>
+  </si>
+  <si>
+    <t>B2,3,5</t>
+  </si>
+  <si>
+    <t>B6,8,11</t>
+  </si>
+  <si>
+    <t>C4,6,7,9</t>
   </si>
 </sst>
 </file>
@@ -226,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -254,12 +275,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -544,7 +559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{267FA40D-93B9-4ED9-BED7-B1E85043D12E}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B2" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -562,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>16</v>
@@ -581,15 +596,13 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" style="4" customWidth="1"/>
+    <col min="2" max="4" width="15.7109375" style="6" customWidth="1"/>
     <col min="5" max="9" width="9.140625" style="1"/>
     <col min="10" max="10" width="9.140625" style="4"/>
     <col min="11" max="13" width="9.140625" style="1"/>
@@ -598,14 +611,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>16</v>
+      <c r="C1" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>1</v>
@@ -643,14 +656,14 @@
       <c r="O1" s="3"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="6">
         <v>800</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>17</v>
+      <c r="C2" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="E2" s="1">
         <v>29.48710434625011</v>
@@ -678,14 +691,14 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="A3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="6">
         <v>800</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>17</v>
+      <c r="C3" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="E3" s="1">
         <v>41.512193477437982</v>
@@ -713,13 +726,13 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="6">
         <v>800</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="1">
@@ -751,13 +764,13 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="6">
         <v>800</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="1">
@@ -786,14 +799,14 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="A7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="6">
         <v>800</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>23</v>
+      <c r="C7" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E7" s="1">
         <v>67.982860006836731</v>
@@ -821,14 +834,14 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="A8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="6">
         <v>800</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>23</v>
+      <c r="C8" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E8" s="1">
         <v>15.72914142100621</v>
@@ -856,14 +869,14 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="A9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="6">
         <v>800</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>23</v>
+      <c r="C9" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E9" s="1">
         <v>3.3501042093951372</v>
@@ -905,17 +918,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E86E0EC-831F-47DA-A0CE-46BEB8E02833}">
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C31" sqref="A29:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="6" customWidth="1"/>
-    <col min="3" max="4" width="12.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" style="4" customWidth="1"/>
+    <col min="2" max="3" width="15.7109375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="4" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="4"/>
     <col min="6" max="12" width="9.140625" style="1"/>
     <col min="13" max="13" width="9.140625" style="4"/>
@@ -925,14 +938,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>16</v>
+      <c r="C1" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
@@ -979,13 +992,13 @@
       <c r="R1" s="3"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="6">
         <v>800</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="7"/>
@@ -1030,13 +1043,13 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="A3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="6">
         <v>800</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="4">
@@ -1080,13 +1093,13 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="6">
         <v>800</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="7"/>
@@ -1131,13 +1144,13 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="6">
         <v>800</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="7"/>
@@ -1182,13 +1195,13 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="A6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="6">
         <v>800</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="7"/>
@@ -1233,13 +1246,13 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="A7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="6">
         <v>800</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="7"/>
@@ -1284,13 +1297,13 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="A8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="6">
         <v>800</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="4">
@@ -1334,14 +1347,14 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="A10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="6">
         <v>900</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>19</v>
+      <c r="C10" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="E10" s="4">
         <v>13.199326908617181</v>
@@ -1384,14 +1397,14 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="A11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="6">
         <v>900</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>19</v>
+      <c r="C11" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="E11" s="4">
         <v>2.3803776962366681</v>
@@ -1434,14 +1447,14 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="A12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="6">
         <v>900</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>19</v>
+      <c r="C12" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="E12" s="4">
         <v>11.99013798064175</v>
@@ -1481,6 +1494,524 @@
       </c>
       <c r="Q12" s="4">
         <v>2.082022164910018E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="6">
+        <v>900</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="4">
+        <v>17.444047229999999</v>
+      </c>
+      <c r="F14" s="1">
+        <v>12.402704849999999</v>
+      </c>
+      <c r="G14" s="1">
+        <v>7.7502457690000002</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1.924995791</v>
+      </c>
+      <c r="I14" s="1">
+        <v>70080.791989999998</v>
+      </c>
+      <c r="J14" s="1">
+        <v>2370.035856</v>
+      </c>
+      <c r="K14" s="1">
+        <v>4.2028263880000001</v>
+      </c>
+      <c r="L14" s="1">
+        <v>7.2871501590000003</v>
+      </c>
+      <c r="M14" s="4">
+        <v>9.3235875999999995E-2</v>
+      </c>
+      <c r="N14" s="1">
+        <v>7.5463299999999997E-2</v>
+      </c>
+      <c r="O14" s="1">
+        <v>4.2080123999999997E-2</v>
+      </c>
+      <c r="P14" s="1">
+        <v>5.1726303000000001E-2</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>1.8833986E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="6">
+        <v>900</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="4">
+        <v>17.510799519999999</v>
+      </c>
+      <c r="F15" s="1">
+        <v>12.595454869999999</v>
+      </c>
+      <c r="G15" s="1">
+        <v>7.894327487</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1.926603292</v>
+      </c>
+      <c r="I15" s="1">
+        <v>68032.814880000005</v>
+      </c>
+      <c r="J15" s="1">
+        <v>2366.3530430000001</v>
+      </c>
+      <c r="K15" s="1">
+        <v>4.2011753049999996</v>
+      </c>
+      <c r="L15" s="1">
+        <v>7.0635524240000001</v>
+      </c>
+      <c r="M15" s="4">
+        <v>8.8598447999999996E-2</v>
+      </c>
+      <c r="N15" s="1">
+        <v>7.7955574999999999E-2</v>
+      </c>
+      <c r="O15" s="1">
+        <v>4.5870322999999998E-2</v>
+      </c>
+      <c r="P15" s="1">
+        <v>5.3675127000000003E-2</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>1.8911862000000002E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="6">
+        <v>1000</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="4">
+        <v>7.7793841989999999</v>
+      </c>
+      <c r="F17" s="1">
+        <v>9.7181113999999999E-2</v>
+      </c>
+      <c r="G17" s="1">
+        <v>6.2909378279999997</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1.780496391</v>
+      </c>
+      <c r="I17" s="1">
+        <v>122086.67200000001</v>
+      </c>
+      <c r="J17" s="1">
+        <v>5966.5444669999997</v>
+      </c>
+      <c r="K17" s="1">
+        <v>3.0574404660000001</v>
+      </c>
+      <c r="L17" s="1">
+        <v>8.2207153260000005</v>
+      </c>
+      <c r="M17" s="4">
+        <v>0.13395759199999999</v>
+      </c>
+      <c r="N17" s="1">
+        <v>7.8602034000000001E-2</v>
+      </c>
+      <c r="O17" s="1">
+        <v>0.108655777</v>
+      </c>
+      <c r="P17" s="1">
+        <v>0.13231269300000001</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>5.3435642999999998E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="6">
+        <v>1000</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="4">
+        <v>8.2411609820000002</v>
+      </c>
+      <c r="F18" s="1">
+        <v>4.1720866990000003</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.386958725</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1.771465005</v>
+      </c>
+      <c r="I18" s="1">
+        <v>116160.4534</v>
+      </c>
+      <c r="J18" s="1">
+        <v>6005.5877360000004</v>
+      </c>
+      <c r="K18" s="1">
+        <v>3.0603264299999999</v>
+      </c>
+      <c r="L18" s="1">
+        <v>8.5960860110000006</v>
+      </c>
+      <c r="M18" s="4">
+        <v>0.14886471300000001</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0.10389947400000001</v>
+      </c>
+      <c r="O18" s="1">
+        <v>0.109468779</v>
+      </c>
+      <c r="P18" s="1">
+        <v>9.3850765000000003E-2</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>5.3747182999999997E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="6">
+        <v>750</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="4">
+        <v>60.80126096</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1.9196104199999999</v>
+      </c>
+      <c r="G20" s="1">
+        <v>23.89585233</v>
+      </c>
+      <c r="H20" s="1">
+        <v>2.702105553</v>
+      </c>
+      <c r="I20" s="1">
+        <v>37190.613129999998</v>
+      </c>
+      <c r="J20" s="1">
+        <v>9896.3519059999999</v>
+      </c>
+      <c r="K20" s="1">
+        <v>4.129084883</v>
+      </c>
+      <c r="L20" s="1">
+        <v>6.4648599390000001</v>
+      </c>
+      <c r="M20" s="4">
+        <v>0.152501109</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0.20961950100000001</v>
+      </c>
+      <c r="O20" s="1">
+        <v>1.269852E-2</v>
+      </c>
+      <c r="P20" s="1">
+        <v>9.3634313999999996E-2</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>7.6125559999999995E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="6">
+        <v>750</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="4">
+        <v>59.771571809999998</v>
+      </c>
+      <c r="F21" s="1">
+        <v>4.8537034380000001</v>
+      </c>
+      <c r="G21" s="1">
+        <v>11.54823169</v>
+      </c>
+      <c r="H21" s="1">
+        <v>2.69289231</v>
+      </c>
+      <c r="I21" s="1">
+        <v>37719.154210000001</v>
+      </c>
+      <c r="J21" s="1">
+        <v>9729.9340339999999</v>
+      </c>
+      <c r="K21" s="1">
+        <v>4.1352880379999997</v>
+      </c>
+      <c r="L21" s="1">
+        <v>6.1491150110000001</v>
+      </c>
+      <c r="M21" s="4">
+        <v>0.14877378499999999</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0.22737300299999999</v>
+      </c>
+      <c r="O21" s="1">
+        <v>1.3187806999999999E-2</v>
+      </c>
+      <c r="P21" s="1">
+        <v>5.4102851E-2</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>7.6933159000000001E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="6">
+        <v>850</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="4">
+        <v>34.758387190000001</v>
+      </c>
+      <c r="F23" s="1">
+        <v>58.172261460000001</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.778020881</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1.802254875</v>
+      </c>
+      <c r="I23" s="1">
+        <v>53055.998290000003</v>
+      </c>
+      <c r="J23" s="1">
+        <v>1876.193211</v>
+      </c>
+      <c r="K23" s="1">
+        <v>5.0053094629999997</v>
+      </c>
+      <c r="L23" s="1">
+        <v>13.4686004</v>
+      </c>
+      <c r="M23" s="4">
+        <v>0.19564941599999999</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0.28547015799999997</v>
+      </c>
+      <c r="O23" s="1">
+        <v>0.15181039599999999</v>
+      </c>
+      <c r="P23" s="1">
+        <v>6.6379458000000002E-2</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>0.14722453399999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="6">
+        <v>850</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="4">
+        <v>13.80174656</v>
+      </c>
+      <c r="F24" s="1">
+        <v>41.521774600000001</v>
+      </c>
+      <c r="G24" s="1">
+        <v>6.5976876960000004</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1.6784466010000001</v>
+      </c>
+      <c r="I24" s="1">
+        <v>62414.275690000002</v>
+      </c>
+      <c r="J24" s="1">
+        <v>1553.2764050000001</v>
+      </c>
+      <c r="K24" s="1">
+        <v>5.3274634179999998</v>
+      </c>
+      <c r="L24" s="1">
+        <v>17.350028810000001</v>
+      </c>
+      <c r="M24" s="4">
+        <v>0.26939116000000002</v>
+      </c>
+      <c r="N24" s="1">
+        <v>0.307465508</v>
+      </c>
+      <c r="O24" s="1">
+        <v>5.7605692999999999E-2</v>
+      </c>
+      <c r="P24" s="1">
+        <v>0.160519994</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>0.19619172000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="6">
+        <v>900</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="4">
+        <v>17.278146039999999</v>
+      </c>
+      <c r="F26" s="1">
+        <v>6.8169285679999998</v>
+      </c>
+      <c r="G26" s="1">
+        <v>17.038933839999999</v>
+      </c>
+      <c r="H26" s="1">
+        <v>2.0579602889999999</v>
+      </c>
+      <c r="I26" s="1">
+        <v>24476.780210000001</v>
+      </c>
+      <c r="J26" s="1">
+        <v>2442.628228</v>
+      </c>
+      <c r="K26" s="1">
+        <v>4.1605498150000004</v>
+      </c>
+      <c r="L26" s="1">
+        <v>9.4604325060000001</v>
+      </c>
+      <c r="M26" s="4">
+        <v>0.17788251499999999</v>
+      </c>
+      <c r="N26" s="1">
+        <v>0.202568212</v>
+      </c>
+      <c r="O26" s="1">
+        <v>0.194106625</v>
+      </c>
+      <c r="P26" s="1">
+        <v>0.108334008</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>0.122089709</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="6">
+        <v>900</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="4">
+        <v>17.290857070000001</v>
+      </c>
+      <c r="F27" s="1">
+        <v>4.5764199400000001</v>
+      </c>
+      <c r="G27" s="1">
+        <v>17.18159708</v>
+      </c>
+      <c r="H27" s="1">
+        <v>2.093077793</v>
+      </c>
+      <c r="I27" s="1">
+        <v>26571.588400000001</v>
+      </c>
+      <c r="J27" s="1">
+        <v>2486.403268</v>
+      </c>
+      <c r="K27" s="1">
+        <v>4.1544967660000003</v>
+      </c>
+      <c r="L27" s="1">
+        <v>9.9745369339999996</v>
+      </c>
+      <c r="M27" s="4">
+        <v>0.16271091500000001</v>
+      </c>
+      <c r="N27" s="1">
+        <v>0.159327881</v>
+      </c>
+      <c r="O27" s="1">
+        <v>0.19366222299999999</v>
+      </c>
+      <c r="P27" s="1">
+        <v>0.18494928499999999</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>0.12357151</v>
       </c>
     </row>
   </sheetData>
@@ -1491,18 +2022,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{283AF620-1FFC-4E74-9A03-F7E60FF34CC2}">
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" style="4" customWidth="1"/>
+    <col min="2" max="4" width="15.7109375" style="6" customWidth="1"/>
     <col min="5" max="12" width="9.140625" style="1"/>
     <col min="13" max="13" width="9.140625" style="4"/>
     <col min="14" max="16" width="9.140625" style="1"/>
@@ -1512,41 +2041,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>16</v>
+      <c r="C1" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>7</v>
@@ -1566,14 +2095,14 @@
       <c r="R1" s="3"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="6">
         <v>800</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>17</v>
+      <c r="C2" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="E2" s="1">
         <v>6.548501602</v>
@@ -1616,14 +2145,14 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="A3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="6">
         <v>800</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>17</v>
+      <c r="C3" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="E3" s="1">
         <v>10.81679173</v>
@@ -1666,14 +2195,14 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="6">
         <v>800</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>17</v>
+      <c r="C4" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="E4" s="1">
         <v>45.330192863728378</v>
@@ -1716,37 +2245,37 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+      <c r="A5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="6">
         <v>800</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="11">
+      <c r="C5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="1">
         <v>18.864058920531399</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="1">
         <v>33.231174457296461</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="1">
         <v>38.20413716514674</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="1">
         <v>1.858935175768863</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="1">
         <v>144710.32227601431</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="1">
         <v>0.31790032122209072</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="1">
         <v>3.2405595001804999</v>
       </c>
-      <c r="L5" s="11">
+      <c r="L5" s="1">
         <v>7.7655399503588036</v>
       </c>
       <c r="M5" s="4">
@@ -1766,14 +2295,14 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+      <c r="A6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="6">
         <v>800</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>17</v>
+      <c r="C6" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="E6" s="1">
         <v>0.8868712962950196</v>
@@ -1816,14 +2345,14 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+      <c r="A7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="6">
         <v>800</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>17</v>
+      <c r="C7" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="E7" s="1">
         <v>19.338055831430591</v>
@@ -1866,14 +2395,14 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
+      <c r="A8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="6">
         <v>800</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>17</v>
+      <c r="C8" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="E8" s="1">
         <v>37.389378219999998</v>
@@ -1916,14 +2445,14 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
+      <c r="A9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="6">
         <v>800</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>17</v>
+      <c r="C9" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="E9" s="1">
         <v>43.26322096765697</v>
@@ -1966,14 +2495,14 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
+      <c r="A10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="6">
         <v>800</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>17</v>
+      <c r="C10" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="E10" s="1">
         <v>15.84713483</v>
@@ -2016,14 +2545,14 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
+      <c r="A11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="6">
         <v>800</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>17</v>
+      <c r="C11" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="E11" s="1">
         <v>34.008444859999997</v>
@@ -2065,8 +2594,526 @@
         <v>4.4154474999999999E-2</v>
       </c>
     </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="6">
+        <v>900</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="1">
+        <v>13.47382181</v>
+      </c>
+      <c r="F13" s="1">
+        <v>12.70302635</v>
+      </c>
+      <c r="G13" s="1">
+        <v>17.06374005</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1.6100197869999999</v>
+      </c>
+      <c r="I13" s="1">
+        <v>389004.45740000001</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0.28193708099999998</v>
+      </c>
+      <c r="K13" s="1">
+        <v>2.5566070359999999</v>
+      </c>
+      <c r="L13" s="1">
+        <v>4.4744182300000004</v>
+      </c>
+      <c r="M13" s="4">
+        <v>0.16934364099999999</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0.127124072</v>
+      </c>
+      <c r="O13" s="1">
+        <v>4.6137895999999998E-2</v>
+      </c>
+      <c r="P13" s="1">
+        <v>0.106230976</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>5.8251523999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="6">
+        <v>900</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="1">
+        <v>13.11764816</v>
+      </c>
+      <c r="F14" s="1">
+        <v>14.041701829999999</v>
+      </c>
+      <c r="G14" s="1">
+        <v>15.72863669</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1.6024581170000001</v>
+      </c>
+      <c r="I14" s="1">
+        <v>384219.10029999999</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0.30987209999999998</v>
+      </c>
+      <c r="K14" s="1">
+        <v>2.737334997</v>
+      </c>
+      <c r="L14" s="1">
+        <v>4.2939194560000002</v>
+      </c>
+      <c r="M14" s="4">
+        <v>0.18167098000000001</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0.13533567499999999</v>
+      </c>
+      <c r="O14" s="1">
+        <v>5.1072299000000002E-2</v>
+      </c>
+      <c r="P14" s="1">
+        <v>8.8291289999999994E-2</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>6.1723821999999998E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="6">
+        <v>1000</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="1">
+        <v>6.8587324680000004</v>
+      </c>
+      <c r="F16" s="1">
+        <v>7.9885640310000001</v>
+      </c>
+      <c r="G16" s="1">
+        <v>4.5258362070000002</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1.720677732</v>
+      </c>
+      <c r="I16" s="1">
+        <v>140224.75889999999</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0.57286533699999997</v>
+      </c>
+      <c r="K16" s="1">
+        <v>4.2015365029999998</v>
+      </c>
+      <c r="L16" s="1">
+        <v>8.3272627470000007</v>
+      </c>
+      <c r="M16" s="4">
+        <v>0.32642752600000002</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0.14967108300000001</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0.17714854199999999</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0.14068908099999999</v>
+      </c>
+      <c r="Q16" s="6">
+        <v>0.180131386</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="6">
+        <v>1000</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="1">
+        <v>8.2121177169999999</v>
+      </c>
+      <c r="F17" s="1">
+        <v>5.4850793629999997</v>
+      </c>
+      <c r="G17" s="1">
+        <v>4.4373878710000003</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1.695490924</v>
+      </c>
+      <c r="I17" s="1">
+        <v>129528.1067</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0.56935574</v>
+      </c>
+      <c r="K17" s="1">
+        <v>4.1790239979999999</v>
+      </c>
+      <c r="L17" s="1">
+        <v>9.2292174469999999</v>
+      </c>
+      <c r="M17" s="4">
+        <v>0.33930924600000001</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0.172398787</v>
+      </c>
+      <c r="O17" s="1">
+        <v>0.181417359</v>
+      </c>
+      <c r="P17" s="1">
+        <v>0.103341296</v>
+      </c>
+      <c r="Q17" s="6">
+        <v>0.188443788</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="6">
+        <v>750</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="1">
+        <v>37.590335240000002</v>
+      </c>
+      <c r="F19" s="1">
+        <v>7.6555987119999998</v>
+      </c>
+      <c r="G19" s="1">
+        <v>83.338543450000003</v>
+      </c>
+      <c r="H19" s="1">
+        <v>2.0368675779999998</v>
+      </c>
+      <c r="I19" s="1">
+        <v>406412.85399999999</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0.39268762899999998</v>
+      </c>
+      <c r="K19" s="1">
+        <v>3.690063511</v>
+      </c>
+      <c r="L19" s="1">
+        <v>4.9008418870000003</v>
+      </c>
+      <c r="M19" s="4">
+        <v>0.287402767</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0.26489575300000001</v>
+      </c>
+      <c r="O19" s="1">
+        <v>0.31444334600000001</v>
+      </c>
+      <c r="P19" s="1">
+        <v>0.167701454</v>
+      </c>
+      <c r="Q19" s="6">
+        <v>0.27976850599999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="6">
+        <v>750</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="1">
+        <v>27.45715534</v>
+      </c>
+      <c r="F20" s="1">
+        <v>24.012004319999999</v>
+      </c>
+      <c r="G20" s="1">
+        <v>97.254247100000001</v>
+      </c>
+      <c r="H20" s="1">
+        <v>2.0399495719999998</v>
+      </c>
+      <c r="I20" s="1">
+        <v>444259.96159999998</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0.36890356200000002</v>
+      </c>
+      <c r="K20" s="1">
+        <v>3.5376843259999999</v>
+      </c>
+      <c r="L20" s="1">
+        <v>2.5862098699999998</v>
+      </c>
+      <c r="M20" s="4">
+        <v>0.31125525599999998</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0.28347522000000003</v>
+      </c>
+      <c r="O20" s="1">
+        <v>0.27150666000000001</v>
+      </c>
+      <c r="P20" s="1">
+        <v>0.184899164</v>
+      </c>
+      <c r="Q20" s="6">
+        <v>0.28514160199999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="6">
+        <v>850</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1.6883201489999999</v>
+      </c>
+      <c r="F22" s="1">
+        <v>39.292514199999999</v>
+      </c>
+      <c r="G22" s="1">
+        <v>20.00321959</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1.4946110239999999</v>
+      </c>
+      <c r="I22" s="1">
+        <v>412437.70079999999</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0.14341503</v>
+      </c>
+      <c r="K22" s="1">
+        <v>2.0075020659999998</v>
+      </c>
+      <c r="L22" s="1">
+        <v>4.5178427159999996</v>
+      </c>
+      <c r="M22" s="4">
+        <v>0.198611972</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0.153836906</v>
+      </c>
+      <c r="O22" s="1">
+        <v>0.22558582199999999</v>
+      </c>
+      <c r="P22" s="1">
+        <v>7.6227312000000005E-2</v>
+      </c>
+      <c r="Q22" s="6">
+        <v>0.119812076</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="6">
+        <v>850</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1.615878685</v>
+      </c>
+      <c r="F23" s="1">
+        <v>37.857990409999999</v>
+      </c>
+      <c r="G23" s="1">
+        <v>28.10994324</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1.496902951</v>
+      </c>
+      <c r="I23" s="1">
+        <v>413757.70240000001</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0.164657212</v>
+      </c>
+      <c r="K23" s="1">
+        <v>2.1137581120000002</v>
+      </c>
+      <c r="L23" s="1">
+        <v>8.4147439609999992</v>
+      </c>
+      <c r="M23" s="4">
+        <v>0.184566643</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0.13534570600000001</v>
+      </c>
+      <c r="O23" s="1">
+        <v>0.25487931200000002</v>
+      </c>
+      <c r="P23" s="1">
+        <v>6.9350223000000003E-2</v>
+      </c>
+      <c r="Q23" s="6">
+        <v>0.12215622299999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="6">
+        <v>900</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="4">
+        <v>1.292733124</v>
+      </c>
+      <c r="F25" s="1">
+        <v>21.874989469999999</v>
+      </c>
+      <c r="G25" s="1">
+        <v>63.50133847</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1.51295091</v>
+      </c>
+      <c r="I25" s="1">
+        <v>398851.45030000003</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0.29578019799999999</v>
+      </c>
+      <c r="K25" s="1">
+        <v>2.7827077739999999</v>
+      </c>
+      <c r="L25" s="1">
+        <v>3.5931942669999999</v>
+      </c>
+      <c r="M25" s="4">
+        <v>0.17802721199999999</v>
+      </c>
+      <c r="N25" s="1">
+        <v>0.15881700200000001</v>
+      </c>
+      <c r="O25" s="1">
+        <v>0.15332378299999999</v>
+      </c>
+      <c r="P25" s="1">
+        <v>0.13154638099999999</v>
+      </c>
+      <c r="Q25" s="6">
+        <v>9.7729160999999995E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="6">
+        <v>900</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="4">
+        <v>2.46505449</v>
+      </c>
+      <c r="F26" s="1">
+        <v>20.898547220000001</v>
+      </c>
+      <c r="G26" s="1">
+        <v>56.635800690000003</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1.5189444249999999</v>
+      </c>
+      <c r="I26" s="1">
+        <v>370119.14549999998</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0.28285682499999998</v>
+      </c>
+      <c r="K26" s="1">
+        <v>2.6564532660000002</v>
+      </c>
+      <c r="L26" s="1">
+        <v>3.490428997</v>
+      </c>
+      <c r="M26" s="4">
+        <v>0.16444170899999999</v>
+      </c>
+      <c r="N26" s="1">
+        <v>0.16393706699999999</v>
+      </c>
+      <c r="O26" s="1">
+        <v>0.123282955</v>
+      </c>
+      <c r="P26" s="1">
+        <v>0.21245130300000001</v>
+      </c>
+      <c r="Q26" s="6">
+        <v>0.11425068100000001</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q11">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:Q11">
     <sortCondition ref="Q1:Q11"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/optimiser/input/__params__.xlsx
+++ b/optimiser/input/__params__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Janzen\Desktop\code\calibrate\optimiser\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C2E6D5-9146-40A2-8E88-18FD4E339E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95957D69-0AFB-443E-BEFE-75031A2E559B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="225" yWindow="225" windowWidth="28575" windowHeight="15375" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="3" r:id="rId1"/>

--- a/optimiser/input/__params__.xlsx
+++ b/optimiser/input/__params__.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Janzen\Desktop\code\calibrate\optimiser\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unsw-my.sharepoint.com/personal/z5208868_ad_unsw_edu_au/Documents/Desktop/code/unsw/calibrate/optimiser/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95957D69-0AFB-443E-BEFE-75031A2E559B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="13_ncr:1_{95957D69-0AFB-443E-BEFE-75031A2E559B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EBB00F81-F947-47CE-89AA-C89A0BBE51CB}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="225" windowWidth="28575" windowHeight="15375" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="3" r:id="rId1"/>
     <sheet name="evp" sheetId="5" r:id="rId2"/>
     <sheet name="evpcd" sheetId="6" r:id="rId3"/>
     <sheet name="evpwd" sheetId="7" r:id="rId4"/>
+    <sheet name="vshai" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="45">
   <si>
     <t>Temperature</t>
   </si>
@@ -145,6 +146,24 @@
   </si>
   <si>
     <t>C4,6,7,9</t>
+  </si>
+  <si>
+    <t>vsh_ts</t>
+  </si>
+  <si>
+    <t>vsh_b</t>
+  </si>
+  <si>
+    <t>vsh_t0</t>
+  </si>
+  <si>
+    <t>ai_g0</t>
+  </si>
+  <si>
+    <t>ai_n</t>
+  </si>
+  <si>
+    <t>F1</t>
   </si>
 </sst>
 </file>
@@ -292,6 +311,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -563,16 +586,16 @@
       <selection activeCell="B2" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="6" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="12.7265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7265625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="12.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="12.7265625" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -593,24 +616,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDEDA563-F318-4852-865D-A2318D089824}">
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="4" customWidth="1"/>
-    <col min="2" max="4" width="15.7109375" style="6" customWidth="1"/>
-    <col min="5" max="9" width="9.140625" style="1"/>
-    <col min="10" max="10" width="9.140625" style="4"/>
-    <col min="11" max="13" width="9.140625" style="1"/>
-    <col min="14" max="15" width="9.140625" style="4"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="15.7265625" style="4" customWidth="1"/>
+    <col min="2" max="4" width="15.7265625" style="6" customWidth="1"/>
+    <col min="5" max="9" width="9.1796875" style="1"/>
+    <col min="10" max="10" width="9.1796875" style="4"/>
+    <col min="11" max="13" width="9.1796875" style="1"/>
+    <col min="14" max="15" width="9.1796875" style="4"/>
+    <col min="16" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
@@ -655,7 +678,7 @@
       </c>
       <c r="O1" s="3"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>32</v>
       </c>
@@ -690,7 +713,7 @@
         <v>1.0377930477444499E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>33</v>
       </c>
@@ -725,7 +748,7 @@
         <v>0.15624150805735959</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>30</v>
       </c>
@@ -763,7 +786,7 @@
         <v>2.226580145079296E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>30</v>
       </c>
@@ -798,116 +821,183 @@
         <v>7.3072064118940405E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="6">
         <v>20</v>
-      </c>
-      <c r="B7" s="6">
-        <v>800</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="1">
-        <v>67.982860006836731</v>
+        <v>265.97128364932661</v>
       </c>
       <c r="F7" s="1">
-        <v>99.076126653151491</v>
+        <v>2334.5423533249768</v>
       </c>
       <c r="G7" s="1">
-        <v>134.9013830759481</v>
+        <v>1.091355198813768</v>
       </c>
       <c r="H7" s="1">
-        <v>1.11085381164693</v>
+        <v>3.0705510178701112</v>
       </c>
       <c r="I7" s="1">
-        <v>39428.027905675168</v>
-      </c>
-      <c r="L7" s="8">
-        <v>2.448460628158876E-3</v>
+        <v>687.32156213341057</v>
+      </c>
+      <c r="L7" s="4">
+        <v>5.5741283847456228E-3</v>
       </c>
       <c r="M7" s="1">
-        <v>1.0303665491887431E-3</v>
-      </c>
-      <c r="N7" s="9">
-        <v>7.0566146733312802E-6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3.1070907249626837E-5</v>
+      </c>
+      <c r="N7" s="1">
+        <v>3.1070907249626837E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="6">
         <v>20</v>
-      </c>
-      <c r="B8" s="6">
-        <v>800</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="1">
+        <v>271.43761345714063</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1861.5090648936739</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1.5523258274972089</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1.2252593284146001</v>
+      </c>
+      <c r="I8" s="1">
+        <v>5589.2001999798858</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1.1782549693226009E-2</v>
+      </c>
+      <c r="N8" s="4">
+        <v>1.3882847727334001E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="6">
+        <v>800</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="1">
+        <v>67.982860006836731</v>
+      </c>
+      <c r="F10" s="1">
+        <v>99.076126653151491</v>
+      </c>
+      <c r="G10" s="1">
+        <v>134.9013830759481</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1.11085381164693</v>
+      </c>
+      <c r="I10" s="1">
+        <v>39428.027905675168</v>
+      </c>
+      <c r="L10" s="8">
+        <v>2.448460628158876E-3</v>
+      </c>
+      <c r="M10" s="1">
+        <v>1.0303665491887431E-3</v>
+      </c>
+      <c r="N10" s="9">
+        <v>7.0566146733312802E-6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="6">
+        <v>800</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="1">
         <v>15.72914142100621</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F11" s="1">
         <v>98.979381984790848</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G11" s="1">
         <v>135.51557491245089</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H11" s="1">
         <v>12</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I11" s="1">
         <v>148.07714822857409</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L11" s="1">
         <v>2.4549495387739088E-3</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M11" s="1">
         <v>1.0160417592269E-3</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N11" s="4">
         <v>7.0591180944191226E-6</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B12" s="6">
         <v>800</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E12" s="1">
         <v>3.3501042093951372</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F12" s="1">
         <v>98.861301913938064</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G12" s="1">
         <v>135.02815825225301</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H12" s="1">
         <v>20</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I12" s="1">
         <v>111.6171281516756</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L12" s="1">
         <v>2.4430788804578238E-3</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M12" s="1">
         <v>1.0403855337616061E-3</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N12" s="4">
         <v>7.0510364749994776E-6</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="L15" s="10"/>
-    </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G21" s="10"/>
+    <row r="18" spans="7:12" x14ac:dyDescent="0.35">
+      <c r="L18" s="10"/>
+    </row>
+    <row r="24" spans="7:12" x14ac:dyDescent="0.35">
+      <c r="G24" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -924,20 +1014,20 @@
       <selection activeCell="C31" sqref="A29:C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="4" customWidth="1"/>
-    <col min="2" max="3" width="15.7109375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="4"/>
-    <col min="6" max="12" width="9.140625" style="1"/>
-    <col min="13" max="13" width="9.140625" style="4"/>
-    <col min="14" max="16" width="9.140625" style="1"/>
-    <col min="17" max="18" width="9.140625" style="4"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="15.7265625" style="4" customWidth="1"/>
+    <col min="2" max="3" width="15.7265625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="15.7265625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="9.1796875" style="4"/>
+    <col min="6" max="12" width="9.1796875" style="1"/>
+    <col min="13" max="13" width="9.1796875" style="4"/>
+    <col min="14" max="16" width="9.1796875" style="1"/>
+    <col min="17" max="18" width="9.1796875" style="4"/>
+    <col min="19" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
@@ -991,7 +1081,7 @@
       </c>
       <c r="R1" s="3"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>30</v>
       </c>
@@ -1042,7 +1132,7 @@
         <v>1.159485087826578E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>30</v>
       </c>
@@ -1092,7 +1182,7 @@
         <v>1.345243825392264E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>30</v>
       </c>
@@ -1143,7 +1233,7 @@
         <v>1.4279890844544811E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>30</v>
       </c>
@@ -1194,7 +1284,7 @@
         <v>1.48936285027564E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>30</v>
       </c>
@@ -1245,7 +1335,7 @@
         <v>1.5724421586219429E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>30</v>
       </c>
@@ -1296,7 +1386,7 @@
         <v>1.595191044646898E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>30</v>
       </c>
@@ -1346,7 +1436,7 @@
         <v>1.7965440876793009E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1396,7 +1486,7 @@
         <v>2.0595838947839451E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>31</v>
       </c>
@@ -1446,7 +1536,7 @@
         <v>2.0775513706197801E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>31</v>
       </c>
@@ -1496,7 +1586,7 @@
         <v>2.082022164910018E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>29</v>
       </c>
@@ -1546,7 +1636,7 @@
         <v>1.8833986E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>29</v>
       </c>
@@ -1596,7 +1686,7 @@
         <v>1.8911862000000002E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>34</v>
       </c>
@@ -1649,7 +1739,7 @@
         <v>5.3435642999999998E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>34</v>
       </c>
@@ -1702,7 +1792,7 @@
         <v>5.3747182999999997E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>36</v>
       </c>
@@ -1752,7 +1842,7 @@
         <v>7.6125559999999995E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>36</v>
       </c>
@@ -1802,7 +1892,7 @@
         <v>7.6933159000000001E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>37</v>
       </c>
@@ -1855,7 +1945,7 @@
         <v>0.14722453399999999</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>37</v>
       </c>
@@ -1908,7 +1998,7 @@
         <v>0.19619172000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>38</v>
       </c>
@@ -1961,7 +2051,7 @@
         <v>0.122089709</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>38</v>
       </c>
@@ -2024,23 +2114,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{283AF620-1FFC-4E74-9A03-F7E60FF34CC2}">
   <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="4" customWidth="1"/>
-    <col min="2" max="4" width="15.7109375" style="6" customWidth="1"/>
-    <col min="5" max="12" width="9.140625" style="1"/>
-    <col min="13" max="13" width="9.140625" style="4"/>
-    <col min="14" max="16" width="9.140625" style="1"/>
-    <col min="17" max="17" width="9.140625" style="6"/>
-    <col min="18" max="18" width="9.140625" style="4"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="15.7265625" style="4" customWidth="1"/>
+    <col min="2" max="4" width="15.7265625" style="6" customWidth="1"/>
+    <col min="5" max="12" width="9.1796875" style="1"/>
+    <col min="13" max="13" width="9.1796875" style="4"/>
+    <col min="14" max="16" width="9.1796875" style="1"/>
+    <col min="17" max="17" width="9.1796875" style="6"/>
+    <col min="18" max="18" width="9.1796875" style="4"/>
+    <col min="19" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
@@ -2094,7 +2184,7 @@
       </c>
       <c r="R1" s="3"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>32</v>
       </c>
@@ -2144,7 +2234,7 @@
         <v>2.2841713E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>32</v>
       </c>
@@ -2194,7 +2284,7 @@
         <v>2.4114355000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>32</v>
       </c>
@@ -2244,7 +2334,7 @@
         <v>2.5155472000000002E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>32</v>
       </c>
@@ -2294,7 +2384,7 @@
         <v>2.8438244337302521E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>32</v>
       </c>
@@ -2344,7 +2434,7 @@
         <v>3.0089759010450551E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>32</v>
       </c>
@@ -2394,7 +2484,7 @@
         <v>3.0959929041249609E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>32</v>
       </c>
@@ -2444,7 +2534,7 @@
         <v>3.4753224999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>32</v>
       </c>
@@ -2494,7 +2584,7 @@
         <v>3.4993432844805397E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>32</v>
       </c>
@@ -2544,7 +2634,7 @@
         <v>3.5595588999999997E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>32</v>
       </c>
@@ -2594,7 +2684,7 @@
         <v>4.4154474999999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>29</v>
       </c>
@@ -2644,7 +2734,7 @@
         <v>5.8251523999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>29</v>
       </c>
@@ -2694,7 +2784,7 @@
         <v>6.1723821999999998E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>34</v>
       </c>
@@ -2747,7 +2837,7 @@
         <v>0.180131386</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>34</v>
       </c>
@@ -2800,7 +2890,7 @@
         <v>0.188443788</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>36</v>
       </c>
@@ -2853,7 +2943,7 @@
         <v>0.27976850599999997</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>36</v>
       </c>
@@ -2906,7 +2996,7 @@
         <v>0.28514160199999999</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>37</v>
       </c>
@@ -2956,7 +3046,7 @@
         <v>0.119812076</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>37</v>
       </c>
@@ -3006,7 +3096,7 @@
         <v>0.12215622299999999</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>38</v>
       </c>
@@ -3059,7 +3149,7 @@
         <v>9.7729160999999995E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>38</v>
       </c>
@@ -3119,4 +3209,104 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47C31987-20C0-4713-874C-028D8E4E8744}">
+  <dimension ref="A1:L26"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.7265625" style="4" customWidth="1"/>
+    <col min="2" max="4" width="15.7265625" style="6" customWidth="1"/>
+    <col min="5" max="9" width="9.1796875" style="1"/>
+    <col min="10" max="11" width="9.1796875" style="6"/>
+    <col min="12" max="12" width="9.1796875" style="4"/>
+    <col min="13" max="16384" width="9.1796875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="6">
+        <v>20</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1">
+        <v>327.86500000000001</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.60553000000000001</v>
+      </c>
+      <c r="G2" s="1">
+        <v>81.307000000000002</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="I2" s="1">
+        <v>15</v>
+      </c>
+      <c r="J2" s="6">
+        <v>2.1678500999999999E-2</v>
+      </c>
+      <c r="K2" s="6">
+        <v>4.6995700000000001E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/optimiser/input/__params__.xlsx
+++ b/optimiser/input/__params__.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unsw-my.sharepoint.com/personal/z5208868_ad_unsw_edu_au/Documents/Desktop/code/unsw/calibrate/optimiser/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unsw-my.sharepoint.com/personal/z5208868_ad_unsw_edu_au/Documents/Desktop/code/calibrate/optimiser/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="13_ncr:1_{95957D69-0AFB-443E-BEFE-75031A2E559B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EBB00F81-F947-47CE-89AA-C89A0BBE51CB}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="13_ncr:1_{95957D69-0AFB-443E-BEFE-75031A2E559B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13CD9D90-5C42-4B79-B826-22AEF290AC48}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,14 @@
     <sheet name="evpcd" sheetId="6" r:id="rId3"/>
     <sheet name="evpwd" sheetId="7" r:id="rId4"/>
     <sheet name="vshai" sheetId="8" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$13:$A$21</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$2:$A$21</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$A$2:$A$5</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$A$6:$A$12</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -29,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="45">
   <si>
     <t>Temperature</t>
   </si>
@@ -266,7 +273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -296,6 +303,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -311,6 +319,728 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.2</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.3</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.0</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>s0</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>s0</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{06A211DD-BE26-4EBC-B6DA-9E5BBBBC888F}">
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{00000001-A825-428F-ABE6-CA7A757280FA}">
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{00000002-A825-428F-ABE6-CA7A757280FA}">
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>536575</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F04823E-4773-5EF6-1258-78A3C696F6C0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3584575" y="1320800"/>
+              <a:ext cx="2981325" cy="2349500"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-AU" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -618,8 +1348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDEDA563-F318-4852-865D-A2318D089824}">
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:C7"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E5" sqref="E1:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1010,8 +1740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E86E0EC-831F-47DA-A0CE-46BEB8E02833}">
   <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C31" sqref="A29:C31"/>
+    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2114,8 +2844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{283AF620-1FFC-4E74-9A03-F7E60FF34CC2}">
   <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F28" sqref="A1:XFD1048576"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3309,4 +4039,539 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D06BCB0F-DD3E-4136-A256-5A59C99F3E7C}">
+  <dimension ref="A1:K21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>29.48710434625011</v>
+      </c>
+      <c r="B2" s="1">
+        <v>16.249786454450639</v>
+      </c>
+      <c r="C2" s="1">
+        <v>54.943238516067588</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2.338120137251932</v>
+      </c>
+      <c r="E2" s="1">
+        <v>29597.640177599191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>41.512193477437982</v>
+      </c>
+      <c r="B3" s="1">
+        <v>26.942086185360139</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.38245424784143423</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2.542940330293872</v>
+      </c>
+      <c r="E3" s="1">
+        <v>18404.701345106248</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>0.6719725137228032</v>
+      </c>
+      <c r="B4" s="1">
+        <v>25.749973486243881</v>
+      </c>
+      <c r="C4" s="1">
+        <v>43.168813737144347</v>
+      </c>
+      <c r="D4" s="1">
+        <v>4.4878846976929143</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1669.8507856032959</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>31.384760457925019</v>
+      </c>
+      <c r="B5" s="2">
+        <v>14.012924319755969</v>
+      </c>
+      <c r="C5" s="2">
+        <v>9.9885349470504678</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2.871743109429576</v>
+      </c>
+      <c r="E5" s="2">
+        <v>9930.2036092384715</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="7">
+        <v>16.04428385491871</v>
+      </c>
+      <c r="B6">
+        <v>34.763324369786773</v>
+      </c>
+      <c r="C6">
+        <v>20.428082185584771</v>
+      </c>
+      <c r="D6">
+        <v>3.4181098245129382</v>
+      </c>
+      <c r="E6">
+        <v>3359.022419623268</v>
+      </c>
+      <c r="F6">
+        <v>1810.3618787343121</v>
+      </c>
+      <c r="G6">
+        <v>5.6613449320954823</v>
+      </c>
+      <c r="H6">
+        <v>8.1352970777412175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="4">
+        <v>12.92875597442686</v>
+      </c>
+      <c r="B7" s="1">
+        <v>37.179916942379421</v>
+      </c>
+      <c r="C7" s="1">
+        <v>29.64304595299074</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2.9071671931862282</v>
+      </c>
+      <c r="E7" s="1">
+        <v>7297.7055051839016</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1732.0325860447231</v>
+      </c>
+      <c r="G7" s="1">
+        <v>5.7769616328705169</v>
+      </c>
+      <c r="H7" s="1">
+        <v>9.6076765676351243</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="7">
+        <v>18.53076465328833</v>
+      </c>
+      <c r="B8">
+        <v>28.649378900720709</v>
+      </c>
+      <c r="C8">
+        <v>24.82714264975634</v>
+      </c>
+      <c r="D8">
+        <v>3.3281591046792629</v>
+      </c>
+      <c r="E8">
+        <v>3890.91748087838</v>
+      </c>
+      <c r="F8">
+        <v>1866.999975475695</v>
+      </c>
+      <c r="G8">
+        <v>5.6610176207638876</v>
+      </c>
+      <c r="H8">
+        <v>10.39774354001174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="7">
+        <v>13.69465925339645</v>
+      </c>
+      <c r="B9">
+        <v>37.354688413850972</v>
+      </c>
+      <c r="C9">
+        <v>30.63395929047816</v>
+      </c>
+      <c r="D9">
+        <v>2.8615605140930351</v>
+      </c>
+      <c r="E9">
+        <v>7584.7853705811522</v>
+      </c>
+      <c r="F9">
+        <v>1769.714030145856</v>
+      </c>
+      <c r="G9">
+        <v>5.7732524635968758</v>
+      </c>
+      <c r="H9">
+        <v>11.02956725709242</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="7">
+        <v>10.92433647262494</v>
+      </c>
+      <c r="B10">
+        <v>40.229171956176877</v>
+      </c>
+      <c r="C10">
+        <v>29.726583922005648</v>
+      </c>
+      <c r="D10">
+        <v>2.906835654269825</v>
+      </c>
+      <c r="E10">
+        <v>7199.922864735463</v>
+      </c>
+      <c r="F10">
+        <v>2030.2678544069381</v>
+      </c>
+      <c r="G10">
+        <v>5.5051178740802333</v>
+      </c>
+      <c r="H10">
+        <v>9.3489362468518191</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="7">
+        <v>14.797709821519231</v>
+      </c>
+      <c r="B11">
+        <v>38.305291743106572</v>
+      </c>
+      <c r="C11">
+        <v>36.940492710612098</v>
+      </c>
+      <c r="D11">
+        <v>2.9032475600382428</v>
+      </c>
+      <c r="E11">
+        <v>6388.2673226210818</v>
+      </c>
+      <c r="F11">
+        <v>1896.0098953594529</v>
+      </c>
+      <c r="G11">
+        <v>5.6813952595149599</v>
+      </c>
+      <c r="H11">
+        <v>12.246354815354159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
+        <v>0.42809220734582543</v>
+      </c>
+      <c r="B12" s="2">
+        <v>48.329871370643879</v>
+      </c>
+      <c r="C12" s="2">
+        <v>40.646529647736628</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2.7707986172613852</v>
+      </c>
+      <c r="E12" s="2">
+        <v>9905.4059204402365</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1940.6375181920571</v>
+      </c>
+      <c r="G12" s="2">
+        <v>5.5965689129738401</v>
+      </c>
+      <c r="H12" s="2">
+        <v>10.175603107615281</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>6.548501602</v>
+      </c>
+      <c r="B13" s="1">
+        <v>44.046439020000001</v>
+      </c>
+      <c r="C13" s="1">
+        <v>50.934935789999997</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2.0541660300000002</v>
+      </c>
+      <c r="E13" s="1">
+        <v>68466.005139999994</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0.33925536000000001</v>
+      </c>
+      <c r="J13" s="1">
+        <v>3.3563672009999999</v>
+      </c>
+      <c r="K13" s="1">
+        <v>6.6252751810000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>10.81679173</v>
+      </c>
+      <c r="B14" s="1">
+        <v>39.964273640000002</v>
+      </c>
+      <c r="C14" s="1">
+        <v>43.40689733</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2.0545909849999999</v>
+      </c>
+      <c r="E14" s="1">
+        <v>68201.328139999998</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.32540135999999997</v>
+      </c>
+      <c r="J14" s="1">
+        <v>3.2870546680000001</v>
+      </c>
+      <c r="K14" s="1">
+        <v>6.1674235470000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>45.330192863728378</v>
+      </c>
+      <c r="B15" s="1">
+        <v>6.9740022445879992</v>
+      </c>
+      <c r="C15" s="1">
+        <v>10.012022598080151</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1.9869969123826321</v>
+      </c>
+      <c r="E15" s="1">
+        <v>86678.171857111447</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0.29732985360354108</v>
+      </c>
+      <c r="J15" s="1">
+        <v>3.147514667109319</v>
+      </c>
+      <c r="K15" s="1">
+        <v>6.2507388750083628</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>18.864058920531399</v>
+      </c>
+      <c r="B16" s="1">
+        <v>33.231174457296461</v>
+      </c>
+      <c r="C16" s="1">
+        <v>38.20413716514674</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1.858935175768863</v>
+      </c>
+      <c r="E16" s="1">
+        <v>144710.32227601431</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0.31790032122209072</v>
+      </c>
+      <c r="J16" s="1">
+        <v>3.2405595001804999</v>
+      </c>
+      <c r="K16" s="1">
+        <v>7.7655399503588036</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>0.8868712962950196</v>
+      </c>
+      <c r="B17" s="1">
+        <v>48.247740535942633</v>
+      </c>
+      <c r="C17" s="1">
+        <v>45.730585678881113</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2.2755911388059809</v>
+      </c>
+      <c r="E17" s="1">
+        <v>33732.534232073733</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0.26117022963942232</v>
+      </c>
+      <c r="J17" s="1">
+        <v>2.9186987843332188</v>
+      </c>
+      <c r="K17" s="1">
+        <v>4.8104436683165854</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>19.338055831430591</v>
+      </c>
+      <c r="B18" s="1">
+        <v>32.693106220893448</v>
+      </c>
+      <c r="C18" s="1">
+        <v>42.607859491412363</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1.851859007938953</v>
+      </c>
+      <c r="E18" s="1">
+        <v>155993.03250930819</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0.26597162514627548</v>
+      </c>
+      <c r="J18" s="1">
+        <v>2.957959794304549</v>
+      </c>
+      <c r="K18" s="1">
+        <v>6.6403344935207569</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>37.389378219999998</v>
+      </c>
+      <c r="B19" s="1">
+        <v>14.745529680000001</v>
+      </c>
+      <c r="C19" s="1">
+        <v>29.302539800000002</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1.8726913629999999</v>
+      </c>
+      <c r="E19" s="1">
+        <v>139851.31880000001</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0.21153991999999999</v>
+      </c>
+      <c r="J19" s="1">
+        <v>2.6292507949999999</v>
+      </c>
+      <c r="K19" s="1">
+        <v>4.9637544829999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>43.26322096765697</v>
+      </c>
+      <c r="B20" s="1">
+        <v>14.72219226542347</v>
+      </c>
+      <c r="C20" s="1">
+        <v>12.004472944709841</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1.7138508216837409</v>
+      </c>
+      <c r="E20" s="1">
+        <v>279238.82616198779</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0.34348754571346041</v>
+      </c>
+      <c r="J20" s="1">
+        <v>3.3777701353994449</v>
+      </c>
+      <c r="K20" s="1">
+        <v>5.9187008540958459</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>15.84713483</v>
+      </c>
+      <c r="B21" s="1">
+        <v>38.381527730000002</v>
+      </c>
+      <c r="C21" s="1">
+        <v>36.724505610000001</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1.7291700649999999</v>
+      </c>
+      <c r="E21" s="1">
+        <v>258734.9713</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.324898725</v>
+      </c>
+      <c r="J21" s="1">
+        <v>3.273351098</v>
+      </c>
+      <c r="K21" s="1">
+        <v>6.5715395680000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>